--- a/templates/templateCompany.xlsx
+++ b/templates/templateCompany.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9BEF7B-D66C-43B2-9035-7DCE6B2B01C0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D413F0D9-057E-44B7-9DFE-5734E024D1B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
   </bookViews>
   <sheets>
     <sheet name="empresa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>RUC</t>
   </si>
@@ -37,13 +37,34 @@
   </si>
   <si>
     <t>Gerente</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publico ó privado </t>
+  </si>
+  <si>
+    <t>Campos Opcionales</t>
+  </si>
+  <si>
+    <t>Campos Obligatorios</t>
+  </si>
+  <si>
+    <t>TIPOS DE CAMPO</t>
+  </si>
+  <si>
+    <t>Valores que puede tomar este campo no usar acentos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +72,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB9C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -68,18 +129,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB9C5"/>
+      <color rgb="FF79DCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -388,35 +520,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
